--- a/FPH-Coef-FURNAS      -.xlsx
+++ b/FPH-Coef-FURNAS      -.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f182f256d3d26c6c/Documentos/GitHub/fph_lin/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_89BD2DB4D966CE0F6235547658FA66F945C4A061" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D27FC393-CD0F-47D5-B6FD-84121F443316}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Coef_FPH" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Corte</t>
   </si>
@@ -52,38 +33,18 @@
   <si>
     <t>MAPE</t>
   </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>vmax</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>P =</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -129,21 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -151,14 +101,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -446,16 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,321 +414,1131 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>0.69288860430287769</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.4255725243176941E-2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-4.5252429059719948E-2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-81.728072819133075</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.80094156317011</v>
-      </c>
-      <c r="H2" s="2">
-        <f>$B$16*C2+$B$17*D2+E2*$B$18+F2</f>
-        <v>1284.7737279660942</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0.7780154782521628</v>
+      </c>
+      <c r="D2">
+        <v>0.008419748298941569</v>
+      </c>
+      <c r="E2">
+        <v>-0.03998671382282625</v>
+      </c>
+      <c r="F2">
+        <v>-106.2555395829828</v>
+      </c>
+      <c r="G2">
+        <v>0.535840579731113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.72346028217286895</v>
-      </c>
-      <c r="D3" s="2">
-        <v>9.8379779803601641E-3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-4.0028937194101402E-2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-56.401127761404879</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H12" si="0">$B$16*C3+$B$17*D3+E3*$B$18+F3</f>
-        <v>1254.5708901471642</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0.7766296747757909</v>
+      </c>
+      <c r="D3">
+        <v>0.008993941502071369</v>
+      </c>
+      <c r="E3">
+        <v>-0.04067478651315409</v>
+      </c>
+      <c r="F3">
+        <v>-113.3918998080815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.70750257388552162</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.1699108156406729E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-4.142284176348511E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-67.070987060680068</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
-        <f t="shared" si="0"/>
-        <v>1262.6774059571367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0.7740256170413128</v>
+      </c>
+      <c r="D4">
+        <v>0.009983614109749456</v>
+      </c>
+      <c r="E4">
+        <v>-0.04186074045687385</v>
+      </c>
+      <c r="F4">
+        <v>-125.3674978916122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.84346979161493307</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-4.2004551311360439E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3.6854123830496029E-14</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
-        <f t="shared" si="0"/>
-        <v>1265.2046874223995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0.7753006181235246</v>
+      </c>
+      <c r="D5">
+        <v>0.009514028876106783</v>
+      </c>
+      <c r="E5">
+        <v>-0.04129802258893395</v>
+      </c>
+      <c r="F5">
+        <v>-119.7446079963744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
-        <v>0.83787240525655282</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.224032040384639E-4</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-4.0904455976091512E-2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-0.70173756875251536</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <f t="shared" si="0"/>
-        <v>1258.9160238487593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.7704980346743771</v>
+      </c>
+      <c r="D6">
+        <v>0.01112260612282104</v>
+      </c>
+      <c r="E6">
+        <v>-0.04322562825844357</v>
+      </c>
+      <c r="F6">
+        <v>-138.3508153513785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
-        <v>0.8291773306121305</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5.9072962411180891E-4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-4.0028937194101402E-2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-3.386652935032898</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
-        <f t="shared" si="0"/>
-        <v>1253.9365878565288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.7728019802750866</v>
+      </c>
+      <c r="D7">
+        <v>0.01040611504287016</v>
+      </c>
+      <c r="E7">
+        <v>-0.04236703581553327</v>
+      </c>
+      <c r="F7">
+        <v>-130.3114179105802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
-        <v>0.83320331936950875</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3.2660960892572669E-4</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-4.0292689546137767E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-1.8724528879710221</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>1255.4282166911375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.7716270165707956</v>
+      </c>
+      <c r="D8">
+        <v>0.01078476366649605</v>
+      </c>
+      <c r="E8">
+        <v>-0.04282078165530826</v>
+      </c>
+      <c r="F8">
+        <v>-134.6242311429451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
-        <v>0.66970759993389817</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2.0003532791844161E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-5.8166993514923167E-2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-104.50966155731</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <f t="shared" si="0"/>
-        <v>1359.1328159163606</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0.7673600672917612</v>
+      </c>
+      <c r="D9">
+        <v>0.0119189701773614</v>
+      </c>
+      <c r="E9">
+        <v>-0.04417993484810925</v>
+      </c>
+      <c r="F9">
+        <v>-146.4171915540517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
-        <v>0.67373358869127575</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.965137277159611E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-5.7375736458814143E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-107.03808246268601</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
-        <f t="shared" si="0"/>
-        <v>1354.5613056823586</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0.8073940060581879</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-0.03255090018060383</v>
+      </c>
+      <c r="F10">
+        <v>9.110188241852582E-15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
-        <v>0.68400006093670029</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.7365708703585451E-2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-5.2240151163146099E-2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-99.557607997655381</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <f t="shared" si="0"/>
-        <v>1324.9854981546812</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0.8060082025818164</v>
+      </c>
+      <c r="D11">
+        <v>3.18996223960956E-05</v>
+      </c>
+      <c r="E11">
+        <v>-0.03224509009601367</v>
+      </c>
+      <c r="F11">
+        <v>-0.4025668547142374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
-        <v>0.67840267457832015</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.8834547152046941E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-5.5540437168952773E-2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-105.871042858755</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <f t="shared" si="0"/>
-        <v>1343.9858261482027</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="2">
-        <f>MIN(H2:H12)</f>
-        <v>1253.9365878565288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3">
-        <v>22950</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0</v>
+      <c r="C12">
+        <v>0.8034041448473371</v>
+      </c>
+      <c r="D12">
+        <v>0.000181133603590694</v>
+      </c>
+      <c r="E12">
+        <v>-0.03183094461566061</v>
+      </c>
+      <c r="F12">
+        <v>-2.285869850593873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0.8046791459295497</v>
+      </c>
+      <c r="D13">
+        <v>9.308637228262737E-05</v>
+      </c>
+      <c r="E13">
+        <v>-0.03200679394939182</v>
+      </c>
+      <c r="F13">
+        <v>-1.174731400932286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.7998765624804022</v>
+      </c>
+      <c r="D14">
+        <v>0.0005849594579190435</v>
+      </c>
+      <c r="E14">
+        <v>-0.03163241717452236</v>
+      </c>
+      <c r="F14">
+        <v>-7.382071367046713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0.8021805080811123</v>
+      </c>
+      <c r="D15">
+        <v>0.0002938005190894198</v>
+      </c>
+      <c r="E15">
+        <v>-0.03171280903197356</v>
+      </c>
+      <c r="F15">
+        <v>-3.707703790804617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0.8010055443768207</v>
+      </c>
+      <c r="D16">
+        <v>0.0004290321703844544</v>
+      </c>
+      <c r="E16">
+        <v>-0.03164798819771995</v>
+      </c>
+      <c r="F16">
+        <v>-5.41430018381776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.7905236670562094</v>
+      </c>
+      <c r="D17">
+        <v>0.003004172342610416</v>
+      </c>
+      <c r="E17">
+        <v>-0.033530014604939</v>
+      </c>
+      <c r="F17">
+        <v>-37.91205412927498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.7921771019053538</v>
+      </c>
+      <c r="D18">
+        <v>0.002414458832319877</v>
+      </c>
+      <c r="E18">
+        <v>-0.03290329011891299</v>
+      </c>
+      <c r="F18">
+        <v>-30.4699875721104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.791340849847164</v>
+      </c>
+      <c r="D19">
+        <v>0.002703202424095825</v>
+      </c>
+      <c r="E19">
+        <v>-0.03320316543684061</v>
+      </c>
+      <c r="F19">
+        <v>-34.11387395160421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.7967385950977871</v>
+      </c>
+      <c r="D20">
+        <v>0.001161011874953004</v>
+      </c>
+      <c r="E20">
+        <v>-0.03184556452100332</v>
+      </c>
+      <c r="F20">
+        <v>-14.6517376595319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.7957666278922569</v>
+      </c>
+      <c r="D21">
+        <v>0.00138474768862683</v>
+      </c>
+      <c r="E21">
+        <v>-0.03199302460293911</v>
+      </c>
+      <c r="F21">
+        <v>-17.47523888093286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.7948271862243139</v>
+      </c>
+      <c r="D22">
+        <v>0.001622621373313417</v>
+      </c>
+      <c r="E22">
+        <v>-0.03217442073755317</v>
+      </c>
+      <c r="F22">
+        <v>-20.47715720694078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.7683672512889145</v>
+      </c>
+      <c r="D23">
+        <v>0.01168712785815544</v>
+      </c>
+      <c r="E23">
+        <v>-0.0439021113429923</v>
+      </c>
+      <c r="F23">
+        <v>-144.2098811118951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.7694123433317607</v>
+      </c>
+      <c r="D24">
+        <v>0.01142250270520393</v>
+      </c>
+      <c r="E24">
+        <v>-0.04358500319903079</v>
+      </c>
+      <c r="F24">
+        <v>-141.5330629715308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.7668976862572146</v>
+      </c>
+      <c r="D25">
+        <v>0.01201476155464529</v>
+      </c>
+      <c r="E25">
+        <v>-0.04429472448741305</v>
+      </c>
+      <c r="F25">
+        <v>-147.2595617676108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.7977457790949402</v>
+      </c>
+      <c r="D26">
+        <v>0.00095235378766761</v>
+      </c>
+      <c r="E26">
+        <v>-0.03173443511895644</v>
+      </c>
+      <c r="F26">
+        <v>-12.01851432960773</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.7987908711377862</v>
+      </c>
+      <c r="D27">
+        <v>0.0007598991309756029</v>
+      </c>
+      <c r="E27">
+        <v>-0.03166236508623796</v>
+      </c>
+      <c r="F27">
+        <v>-9.589775053085809</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.7889357442599613</v>
+      </c>
+      <c r="D28">
+        <v>0.003643677959235335</v>
+      </c>
+      <c r="E28">
+        <v>-0.03426340753859292</v>
+      </c>
+      <c r="F28">
+        <v>-45.98248710995836</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.7897228622784827</v>
+      </c>
+      <c r="D29">
+        <v>0.003317543825498475</v>
+      </c>
+      <c r="E29">
+        <v>-0.03388344736938546</v>
+      </c>
+      <c r="F29">
+        <v>-41.86673956902585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.7930351144849308</v>
+      </c>
+      <c r="D30">
+        <v>0.00213795217843431</v>
+      </c>
+      <c r="E30">
+        <v>-0.03263111296715969</v>
+      </c>
+      <c r="F30">
+        <v>-26.98052890140539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.7939175788399011</v>
+      </c>
+      <c r="D31">
+        <v>0.001873878922478529</v>
+      </c>
+      <c r="E31">
+        <v>-0.03238769235987092</v>
+      </c>
+      <c r="F31">
+        <v>-23.64797722589453</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.7611451392501837</v>
+      </c>
+      <c r="D32">
+        <v>0.01339991957892694</v>
+      </c>
+      <c r="E32">
+        <v>-0.04631766942819768</v>
+      </c>
+      <c r="F32">
+        <v>-158.759738057597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.7663881000862321</v>
+      </c>
+      <c r="D33">
+        <v>0.01212821051648822</v>
+      </c>
+      <c r="E33">
+        <v>-0.04443539401646229</v>
+      </c>
+      <c r="F33">
+        <v>-148.2873508849607</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.7665445941948983</v>
+      </c>
+      <c r="D34">
+        <v>0.01209197544873958</v>
+      </c>
+      <c r="E34">
+        <v>-0.04438968711866272</v>
+      </c>
+      <c r="F34">
+        <v>-147.9541137494346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.7613148853060245</v>
+      </c>
+      <c r="D35">
+        <v>0.01334423967822638</v>
+      </c>
+      <c r="E35">
+        <v>-0.04622460858167969</v>
+      </c>
+      <c r="F35">
+        <v>-158.2723425815542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.7617630683445679</v>
+      </c>
+      <c r="D36">
+        <v>0.01322662970156731</v>
+      </c>
+      <c r="E36">
+        <v>-0.04603174946004512</v>
+      </c>
+      <c r="F36">
+        <v>-157.3565186453088</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.7619623220411383</v>
+      </c>
+      <c r="D37">
+        <v>0.01318305706013225</v>
+      </c>
+      <c r="E37">
+        <v>-0.0459616722599555</v>
+      </c>
+      <c r="F37">
+        <v>-157.0593362603246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.7654486584182896</v>
+      </c>
+      <c r="D38">
+        <v>0.01233619144554142</v>
+      </c>
+      <c r="E38">
+        <v>-0.04470558362621231</v>
+      </c>
+      <c r="F38">
+        <v>-150.0929343675767</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>0.7654484565516618</v>
+      </c>
+      <c r="D39">
+        <v>0.01233623264664109</v>
+      </c>
+      <c r="E39">
+        <v>-0.04470563819581291</v>
+      </c>
+      <c r="F39">
+        <v>-150.0932623101781</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.7642787851537181</v>
+      </c>
+      <c r="D40">
+        <v>0.01260336953777756</v>
+      </c>
+      <c r="E40">
+        <v>-0.04507647934205797</v>
+      </c>
+      <c r="F40">
+        <v>-152.3313047689865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.7645390510338751</v>
+      </c>
+      <c r="D41">
+        <v>0.01254645480008886</v>
+      </c>
+      <c r="E41">
+        <v>-0.04499571309010897</v>
+      </c>
+      <c r="F41">
+        <v>-151.8812356044982</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.7603443344724599</v>
+      </c>
+      <c r="D42">
+        <v>0.01362047663523579</v>
+      </c>
+      <c r="E42">
+        <v>-0.04669202994185736</v>
+      </c>
+      <c r="F42">
+        <v>-160.4640606326305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>0.7608416980919424</v>
+      </c>
+      <c r="D43">
+        <v>0.01346627585242279</v>
+      </c>
+      <c r="E43">
+        <v>-0.04642857427726535</v>
+      </c>
+      <c r="F43">
+        <v>-159.1882619824235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>0.7604073263082718</v>
+      </c>
+      <c r="D44">
+        <v>0.01359292662514894</v>
+      </c>
+      <c r="E44">
+        <v>-0.04664424653302794</v>
+      </c>
+      <c r="F44">
+        <v>-160.201264856413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>0.7622017122115843</v>
+      </c>
+      <c r="D45">
+        <v>0.01311325752155766</v>
+      </c>
+      <c r="E45">
+        <v>-0.04584941474997305</v>
+      </c>
+      <c r="F45">
+        <v>-156.4631023565983</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>0.7661793900339118</v>
+      </c>
+      <c r="D46">
+        <v>0.01217116632812375</v>
+      </c>
+      <c r="E46">
+        <v>-0.04448957845751095</v>
+      </c>
+      <c r="F46">
+        <v>-148.6474714404946</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>0.7658073552858803</v>
+      </c>
+      <c r="D47">
+        <v>0.01225252259381106</v>
+      </c>
+      <c r="E47">
+        <v>-0.0445947667825499</v>
+      </c>
+      <c r="F47">
+        <v>-149.3497961034844</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>0.7650540329572016</v>
+      </c>
+      <c r="D48">
+        <v>0.0124224848876321</v>
+      </c>
+      <c r="E48">
+        <v>-0.04482259662323066</v>
+      </c>
+      <c r="F48">
+        <v>-150.8065892252949</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>0.7646761876525311</v>
+      </c>
+      <c r="D49">
+        <v>0.0125114677177025</v>
+      </c>
+      <c r="E49">
+        <v>-0.04494606381426703</v>
+      </c>
+      <c r="F49">
+        <v>-151.5701441996908</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>0.7638805224389479</v>
+      </c>
+      <c r="D50">
+        <v>0.01269837874882888</v>
+      </c>
+      <c r="E50">
+        <v>-0.04521430060347021</v>
+      </c>
+      <c r="F50">
+        <v>-153.1199237248344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>0.7636565866789047</v>
+      </c>
+      <c r="D51">
+        <v>0.01275714286359189</v>
+      </c>
+      <c r="E51">
+        <v>-0.04530139751060184</v>
+      </c>
+      <c r="F51">
+        <v>-153.630766978735</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>0.7634757698204415</v>
+      </c>
+      <c r="D52">
+        <v>0.01279668375179042</v>
+      </c>
+      <c r="E52">
+        <v>-0.04536000281898114</v>
+      </c>
+      <c r="F52">
+        <v>-153.9291154667896</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>0.7595572164539357</v>
+      </c>
+      <c r="D53">
+        <v>0.013860825569877</v>
+      </c>
+      <c r="E53">
+        <v>-0.04711319978783737</v>
+      </c>
+      <c r="F53">
+        <v>-162.3742058419023</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>0.7598691920895195</v>
+      </c>
+      <c r="D54">
+        <v>0.013724380397318</v>
+      </c>
+      <c r="E54">
+        <v>-0.04687224315872534</v>
+      </c>
+      <c r="F54">
+        <v>-161.0974021863691</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>0.7627985740993295</v>
+      </c>
+      <c r="D55">
+        <v>0.01296907088598411</v>
+      </c>
+      <c r="E55">
+        <v>-0.04562316798633928</v>
+      </c>
+      <c r="F55">
+        <v>-155.3531332237329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <v>0.7626391449024648</v>
+      </c>
+      <c r="D56">
+        <v>0.01300393473718904</v>
+      </c>
+      <c r="E56">
+        <v>-0.04567704011254434</v>
+      </c>
+      <c r="F56">
+        <v>-155.6035551291069</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>0.7630568444217407</v>
+      </c>
+      <c r="D57">
+        <v>0.01289847294761813</v>
+      </c>
+      <c r="E57">
+        <v>-0.04551407903276623</v>
+      </c>
+      <c r="F57">
+        <v>-154.748799859969</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FPH-Coef-FURNAS      -.xlsx
+++ b/FPH-Coef-FURNAS      -.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,16 +423,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7774335123012439</v>
+        <v>0.7780154782521628</v>
       </c>
       <c r="D2">
-        <v>0.009537966974524369</v>
+        <v>0.008419748298941569</v>
       </c>
       <c r="E2">
-        <v>-0.04184420152778913</v>
+        <v>-0.04255539438836172</v>
       </c>
       <c r="F2">
-        <v>-120.3672356251026</v>
+        <v>-106.2555395829828</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,16 +443,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.7717588424783521</v>
+        <v>0.7766296747757909</v>
       </c>
       <c r="D3">
-        <v>0.01139936546582842</v>
+        <v>0.008993941502071369</v>
       </c>
       <c r="E3">
-        <v>-0.04407477036890849</v>
+        <v>-0.04255539438836169</v>
       </c>
       <c r="F3">
-        <v>-141.7211991173427</v>
+        <v>-113.3918998080815</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -463,16 +463,16 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.7671930388252155</v>
+        <v>0.7740256170413128</v>
       </c>
       <c r="D4">
-        <v>0.01239781181269831</v>
+        <v>0.009983614109749456</v>
       </c>
       <c r="E4">
-        <v>-0.04527123814368197</v>
+        <v>-0.04255539438836169</v>
       </c>
       <c r="F4">
-        <v>-150.8833421747594</v>
+        <v>-125.3674978916122</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -483,16 +483,16 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8068848092407029</v>
+        <v>0.7753006181235246</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.009514028876106783</v>
       </c>
       <c r="E5">
-        <v>-0.03241746527419486</v>
+        <v>-0.04255539438836164</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>-119.7446079963744</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -503,16 +503,16 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8012101394178112</v>
+        <v>0.7704980346743771</v>
       </c>
       <c r="D6">
-        <v>0.0006204661637679879</v>
+        <v>0.01112260612282104</v>
       </c>
       <c r="E6">
-        <v>-0.03204570380067494</v>
+        <v>-0.04255539438836169</v>
       </c>
       <c r="F6">
-        <v>-7.83015889351925</v>
+        <v>-138.3508153513785</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,16 +523,16 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.792395011332429</v>
+        <v>0.7728019802750866</v>
       </c>
       <c r="D7">
-        <v>0.002994429325408807</v>
+        <v>0.01040611504287016</v>
       </c>
       <c r="E7">
-        <v>-0.034002886914612</v>
+        <v>-0.04255539438836169</v>
       </c>
       <c r="F7">
-        <v>-37.78909920079407</v>
+        <v>-130.3114179105802</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -543,16 +543,16 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7964765871690851</v>
+        <v>0.7716270165707956</v>
       </c>
       <c r="D8">
-        <v>0.001655595641403715</v>
+        <v>0.01078476366649605</v>
       </c>
       <c r="E8">
-        <v>-0.03266591692809639</v>
+        <v>-0.04255539438836169</v>
       </c>
       <c r="F8">
-        <v>-20.89328587538672</v>
+        <v>-134.6242311429451</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -563,16 +563,16 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.7670252902296264</v>
+        <v>0.7673600672917612</v>
       </c>
       <c r="D9">
-        <v>0.0124711780742297</v>
+        <v>0.0119189701773614</v>
       </c>
       <c r="E9">
-        <v>-0.04538113434385474</v>
+        <v>-0.04255539438836169</v>
       </c>
       <c r="F9">
-        <v>-151.6828950295549</v>
+        <v>-146.4171915540517</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -583,16 +583,16 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7629437143929702</v>
+        <v>0.8073940060581879</v>
       </c>
       <c r="D10">
-        <v>0.01364714794787684</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-0.0472275395441764</v>
+        <v>-0.04520921404788817</v>
       </c>
       <c r="F10">
-        <v>-161.9132597335037</v>
+        <v>9.110188241852582E-15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -603,16 +603,936 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7642397410303066</v>
+        <v>0.8060082025818164</v>
       </c>
       <c r="D11">
-        <v>0.01308031977925606</v>
+        <v>3.18996223960956E-05</v>
       </c>
       <c r="E11">
-        <v>-0.04629357498553211</v>
+        <v>-0.04486517770272429</v>
       </c>
       <c r="F11">
-        <v>-156.2238636980147</v>
+        <v>-0.4025668547142374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.8034041448473371</v>
+      </c>
+      <c r="D12">
+        <v>0.000181133603590694</v>
+      </c>
+      <c r="E12">
+        <v>-0.04427220073086417</v>
+      </c>
+      <c r="F12">
+        <v>-2.285869850593873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0.8046791459295497</v>
+      </c>
+      <c r="D13">
+        <v>9.308637228262737E-05</v>
+      </c>
+      <c r="E13">
+        <v>-0.04455355966483415</v>
+      </c>
+      <c r="F13">
+        <v>-1.174731400932286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.7998765624804022</v>
+      </c>
+      <c r="D14">
+        <v>0.0005849594579190435</v>
+      </c>
+      <c r="E14">
+        <v>-0.04358975683007939</v>
+      </c>
+      <c r="F14">
+        <v>-7.382071367046713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0.8021805080811123</v>
+      </c>
+      <c r="D15">
+        <v>0.0002938005190894198</v>
+      </c>
+      <c r="E15">
+        <v>-0.04401905305153472</v>
+      </c>
+      <c r="F15">
+        <v>-3.707703790804617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0.8010055443768207</v>
+      </c>
+      <c r="D16">
+        <v>0.0004290321703844544</v>
+      </c>
+      <c r="E16">
+        <v>-0.04379218013164714</v>
+      </c>
+      <c r="F16">
+        <v>-5.41430018381776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.7905236670562094</v>
+      </c>
+      <c r="D17">
+        <v>0.003004172342610416</v>
+      </c>
+      <c r="E17">
+        <v>-0.04258833994097412</v>
+      </c>
+      <c r="F17">
+        <v>-37.91205412927498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.7921771019053538</v>
+      </c>
+      <c r="D18">
+        <v>0.002414458832319877</v>
+      </c>
+      <c r="E18">
+        <v>-0.0426682865881774</v>
+      </c>
+      <c r="F18">
+        <v>-30.4699875721104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.791340849847164</v>
+      </c>
+      <c r="D19">
+        <v>0.002703202424095825</v>
+      </c>
+      <c r="E19">
+        <v>-0.0426221519238808</v>
+      </c>
+      <c r="F19">
+        <v>-34.11387395160421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.7967385950977871</v>
+      </c>
+      <c r="D20">
+        <v>0.001161011874953004</v>
+      </c>
+      <c r="E20">
+        <v>-0.04311260353524671</v>
+      </c>
+      <c r="F20">
+        <v>-14.6517376595319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.7957666278922569</v>
+      </c>
+      <c r="D21">
+        <v>0.00138474768862683</v>
+      </c>
+      <c r="E21">
+        <v>-0.04299195437729927</v>
+      </c>
+      <c r="F21">
+        <v>-17.47523888093286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.7948271862243139</v>
+      </c>
+      <c r="D22">
+        <v>0.001622621373313417</v>
+      </c>
+      <c r="E22">
+        <v>-0.04288829944323409</v>
+      </c>
+      <c r="F22">
+        <v>-20.47715720694078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.7683672512889145</v>
+      </c>
+      <c r="D23">
+        <v>0.01168712785815544</v>
+      </c>
+      <c r="E23">
+        <v>-0.04255539438836172</v>
+      </c>
+      <c r="F23">
+        <v>-144.2098811118951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.7694123433317607</v>
+      </c>
+      <c r="D24">
+        <v>0.01142250270520393</v>
+      </c>
+      <c r="E24">
+        <v>-0.04255539438836169</v>
+      </c>
+      <c r="F24">
+        <v>-141.5330629715308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.7668976862572146</v>
+      </c>
+      <c r="D25">
+        <v>0.01201476155464529</v>
+      </c>
+      <c r="E25">
+        <v>-0.04255539438836172</v>
+      </c>
+      <c r="F25">
+        <v>-147.2595617676108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.7977457790949402</v>
+      </c>
+      <c r="D26">
+        <v>0.00095235378766761</v>
+      </c>
+      <c r="E26">
+        <v>-0.04325151528780522</v>
+      </c>
+      <c r="F26">
+        <v>-12.01851432960773</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.7987908711377862</v>
+      </c>
+      <c r="D27">
+        <v>0.0007598991309756029</v>
+      </c>
+      <c r="E27">
+        <v>-0.04341006935978597</v>
+      </c>
+      <c r="F27">
+        <v>-9.589775053085809</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.7889357442599613</v>
+      </c>
+      <c r="D28">
+        <v>0.003643677959235335</v>
+      </c>
+      <c r="E28">
+        <v>-0.04255539438836169</v>
+      </c>
+      <c r="F28">
+        <v>-45.98248710995836</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.7897228622784827</v>
+      </c>
+      <c r="D29">
+        <v>0.003317543825498475</v>
+      </c>
+      <c r="E29">
+        <v>-0.04256625039319618</v>
+      </c>
+      <c r="F29">
+        <v>-41.86673956902585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.7930351144849308</v>
+      </c>
+      <c r="D30">
+        <v>0.00213795217843431</v>
+      </c>
+      <c r="E30">
+        <v>-0.04272745553421062</v>
+      </c>
+      <c r="F30">
+        <v>-26.98052890140539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.7939175788399011</v>
+      </c>
+      <c r="D31">
+        <v>0.001873878922478529</v>
+      </c>
+      <c r="E31">
+        <v>-0.04280048171639744</v>
+      </c>
+      <c r="F31">
+        <v>-23.64797722589453</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.7611451392501837</v>
+      </c>
+      <c r="D32">
+        <v>0.01339991957892694</v>
+      </c>
+      <c r="E32">
+        <v>-0.04291846351887616</v>
+      </c>
+      <c r="F32">
+        <v>-158.759738057597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.7663881000862321</v>
+      </c>
+      <c r="D33">
+        <v>0.01212821051648822</v>
+      </c>
+      <c r="E33">
+        <v>-0.0425601146725145</v>
+      </c>
+      <c r="F33">
+        <v>-148.2873508849607</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.7665445941948983</v>
+      </c>
+      <c r="D34">
+        <v>0.01209197544873958</v>
+      </c>
+      <c r="E34">
+        <v>-0.04255782932762452</v>
+      </c>
+      <c r="F34">
+        <v>-147.9541137494346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.7613148853060245</v>
+      </c>
+      <c r="D35">
+        <v>0.01334423967822638</v>
+      </c>
+      <c r="E35">
+        <v>-0.04289212554344653</v>
+      </c>
+      <c r="F35">
+        <v>-158.2723425815542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.7617630683445679</v>
+      </c>
+      <c r="D36">
+        <v>0.01322662970156731</v>
+      </c>
+      <c r="E36">
+        <v>-0.04284020193377563</v>
+      </c>
+      <c r="F36">
+        <v>-157.3565186453088</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.7619623220411383</v>
+      </c>
+      <c r="D37">
+        <v>0.01318305706013225</v>
+      </c>
+      <c r="E37">
+        <v>-0.04282233911806651</v>
+      </c>
+      <c r="F37">
+        <v>-157.0593362603246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.7654486584182896</v>
+      </c>
+      <c r="D38">
+        <v>0.01233619144554142</v>
+      </c>
+      <c r="E38">
+        <v>-0.0425810745863878</v>
+      </c>
+      <c r="F38">
+        <v>-150.0929343675767</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>0.7654484565516618</v>
+      </c>
+      <c r="D39">
+        <v>0.01233623264664109</v>
+      </c>
+      <c r="E39">
+        <v>-0.04258107978349263</v>
+      </c>
+      <c r="F39">
+        <v>-150.0932623101781</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.7642787851537181</v>
+      </c>
+      <c r="D40">
+        <v>0.01260336953777756</v>
+      </c>
+      <c r="E40">
+        <v>-0.04263180289565404</v>
+      </c>
+      <c r="F40">
+        <v>-152.3313047689865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.7645390510338751</v>
+      </c>
+      <c r="D41">
+        <v>0.01254645480008886</v>
+      </c>
+      <c r="E41">
+        <v>-0.04261923925646206</v>
+      </c>
+      <c r="F41">
+        <v>-151.8812356044982</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.7603443344724599</v>
+      </c>
+      <c r="D42">
+        <v>0.01362047663523579</v>
+      </c>
+      <c r="E42">
+        <v>-0.04302852399157746</v>
+      </c>
+      <c r="F42">
+        <v>-160.4640606326305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>0.7608416980919424</v>
+      </c>
+      <c r="D43">
+        <v>0.01346627585242279</v>
+      </c>
+      <c r="E43">
+        <v>-0.04294985168370657</v>
+      </c>
+      <c r="F43">
+        <v>-159.1882619824235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>0.7604073263082718</v>
+      </c>
+      <c r="D44">
+        <v>0.01359292662514894</v>
+      </c>
+      <c r="E44">
+        <v>-0.04301375457430295</v>
+      </c>
+      <c r="F44">
+        <v>-160.201264856413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>0.7622017122115843</v>
+      </c>
+      <c r="D45">
+        <v>0.01311325752155766</v>
+      </c>
+      <c r="E45">
+        <v>-0.0427937244586593</v>
+      </c>
+      <c r="F45">
+        <v>-156.4631023565983</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>0.7661793900339118</v>
+      </c>
+      <c r="D46">
+        <v>0.01217116632812375</v>
+      </c>
+      <c r="E46">
+        <v>-0.04256282389456691</v>
+      </c>
+      <c r="F46">
+        <v>-148.6474714404946</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>0.7658073552858803</v>
+      </c>
+      <c r="D47">
+        <v>0.01225252259381106</v>
+      </c>
+      <c r="E47">
+        <v>-0.04257052060127708</v>
+      </c>
+      <c r="F47">
+        <v>-149.3497961034844</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>0.7650540329572016</v>
+      </c>
+      <c r="D48">
+        <v>0.0124224848876321</v>
+      </c>
+      <c r="E48">
+        <v>-0.04259467960063424</v>
+      </c>
+      <c r="F48">
+        <v>-150.8065892252949</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>0.7646761876525311</v>
+      </c>
+      <c r="D49">
+        <v>0.0125114677177025</v>
+      </c>
+      <c r="E49">
+        <v>-0.04261151603577553</v>
+      </c>
+      <c r="F49">
+        <v>-151.5701441996908</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>0.7638805224389479</v>
+      </c>
+      <c r="D50">
+        <v>0.01269837874882888</v>
+      </c>
+      <c r="E50">
+        <v>-0.04265577181068238</v>
+      </c>
+      <c r="F50">
+        <v>-153.1199237248344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>0.7636565866789047</v>
+      </c>
+      <c r="D51">
+        <v>0.01275714286359189</v>
+      </c>
+      <c r="E51">
+        <v>-0.04267244994183525</v>
+      </c>
+      <c r="F51">
+        <v>-153.630766978735</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>0.7634757698204415</v>
+      </c>
+      <c r="D52">
+        <v>0.01279668375179042</v>
+      </c>
+      <c r="E52">
+        <v>-0.04268367223492906</v>
+      </c>
+      <c r="F52">
+        <v>-153.9291154667896</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>0.7595572164539357</v>
+      </c>
+      <c r="D53">
+        <v>0.013860825569877</v>
+      </c>
+      <c r="E53">
+        <v>-0.04316167660368111</v>
+      </c>
+      <c r="F53">
+        <v>-162.3742058419023</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>0.7598691920895195</v>
+      </c>
+      <c r="D54">
+        <v>0.013724380397318</v>
+      </c>
+      <c r="E54">
+        <v>-0.04308422625860937</v>
+      </c>
+      <c r="F54">
+        <v>-161.0974021863691</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>0.7627985740993295</v>
+      </c>
+      <c r="D55">
+        <v>0.01296907088598411</v>
+      </c>
+      <c r="E55">
+        <v>-0.0427402608030589</v>
+      </c>
+      <c r="F55">
+        <v>-155.3531332237329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <v>0.7626391449024648</v>
+      </c>
+      <c r="D56">
+        <v>0.01300393473718904</v>
+      </c>
+      <c r="E56">
+        <v>-0.04275235454567638</v>
+      </c>
+      <c r="F56">
+        <v>-155.6035551291069</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>0.7630568444217407</v>
+      </c>
+      <c r="D57">
+        <v>0.01289847294761813</v>
+      </c>
+      <c r="E57">
+        <v>-0.04271577144613437</v>
+      </c>
+      <c r="F57">
+        <v>-154.748799859969</v>
       </c>
     </row>
   </sheetData>
